--- a/App/wwwroot/technique.xlsx
+++ b/App/wwwroot/technique.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
@@ -32,115 +32,166 @@
     <t xml:space="preserve">Примечание</t>
   </si>
   <si>
-    <t xml:space="preserve">monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdg</t>
+    <t xml:space="preserve">mmmmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ссс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">счсчс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вцвв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ьь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jjjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nnnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvvvvvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmmmmmrrrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvvvvvvvvvvvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">Не используется</t>
   </si>
   <si>
-    <t xml:space="preserve">hgfffjyyyyyyy4yyyyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">benq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hgff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fghad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Используется</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mousw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjklp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AASS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfgad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sven</t>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmmmmmm,,,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
   </si>
   <si>
     <t xml:space="preserve">exemple</t>
   </si>
   <si>
-    <t xml:space="preserve">svennn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2345234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhsadfgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ertyrte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdsgadfggggggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exempleforexel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">werwer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">werw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5555</t>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm..c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ьььььььььь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шщ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ььь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrrrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1r</t>
   </si>
 </sst>
 </file>
@@ -220,166 +271,166 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>23123</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>23123</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4">
-        <v>27854</v>
-      </c>
-      <c r="D4">
-        <v>2564</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>27854</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>23123</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>23123</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>23123</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>23123</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>23123</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2453</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -388,147 +439,145 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>23123</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>23123</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>45678</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>45677</v>
+        <v>3333333</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>3333</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>45678</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>4564</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>2345</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>34534</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>23123</v>
-      </c>
       <c r="D17">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>5674</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F18"/>
     </row>
@@ -537,13 +586,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>5643</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -552,16 +601,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
       <c r="C20">
-        <v>6456</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -570,34 +619,34 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>443</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -606,39 +655,297 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
-        <v>434</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24"/>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>1234</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>3452</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
